--- a/picture/sort.xlsx
+++ b/picture/sort.xlsx
@@ -25,7 +25,7 @@
     <t>时间复杂度</t>
   </si>
   <si>
-    <t>空间复杂度</t>
+    <t>空间复杂度(使用原地排序存储复杂度都为O(1)，快速和递归排序使用递归有栈空间占用)</t>
   </si>
   <si>
     <t>稳定性</t>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>最坏情况</t>
-  </si>
-  <si>
-    <t>辅助内存</t>
   </si>
   <si>
     <t>待排序的数组长度为n</t>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t> O(nlog</t>
     </r>
     <r>
@@ -384,13 +387,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> O(log</t>
+      <t>O(log</t>
     </r>
     <r>
       <rPr>
@@ -410,6 +407,15 @@
         <charset val="134"/>
       </rPr>
       <t>n)~O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>递归栈空间</t>
     </r>
   </si>
   <si>
@@ -488,7 +494,21 @@
     </r>
   </si>
   <si>
-    <t>两个已排序的数组合并</t>
+    <r>
+      <t> O(1)/O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>存储空间,见下方</t>
+    </r>
+  </si>
+  <si>
+    <t>1.快速排序每次递归都会返回一个中间值的位置，必须使用栈。所以递归栈空间复杂度：O(log2n)~O(n)，因为是原地排序，存储复杂度为O(1)。
+2.归并排序每次递归需要用到一个辅助存储数组，长度与待排序的数组相等，虽然递归次数是O(log2n)，但每次递归都会释放掉所占的辅助空间，所以下次递归的栈空间和辅助空间与这部分释放的空间就不相关了，因而递归栈空间复杂度为O(1)，而存储占用的空间复杂度还是O(n)。如果是改进的原地排序，存储时间复杂度可以达到O(1)。</t>
   </si>
 </sst>
 </file>
@@ -496,12 +516,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -524,6 +544,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -531,10 +558,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -551,10 +578,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,40 +629,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,18 +661,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,9 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,13 +685,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,6 +698,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,7 +714,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,13 +723,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,12 +750,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="14"/>
@@ -737,6 +764,19 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -759,97 +799,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,13 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,66 +973,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -962,6 +1002,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1033,7 +1112,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1042,21 +1132,53 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1085,9 +1207,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1110,7 +1230,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1128,8 +1248,96 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,11 +1351,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1167,51 +1396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1222,138 +1406,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,100 +1537,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1776,10 +2002,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:L11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1788,278 +2014,351 @@
     <col min="4" max="4" width="12.0535714285714" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.0714285714286" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.0178571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.4821428571429" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.77678571428571" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.7410714285714" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.35"/>
-    <row r="2" ht="29.5" customHeight="1" spans="2:11">
-      <c r="B2" s="2" t="s">
+    <row r="1" ht="18.35" spans="1:11">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" ht="29.5" customHeight="1" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="28"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="2:11">
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:11">
+      <c r="A3" s="2"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="28"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="17"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="28"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="2:11">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="5" ht="24" customHeight="1" spans="1:12">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="34"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:12">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:12">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="17"/>
+      <c r="I8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
     </row>
-    <row r="5" ht="24" customHeight="1" spans="2:12">
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
+    <row r="9" ht="29" customHeight="1" spans="1:12">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I9" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+    </row>
+    <row r="10" ht="28" customHeight="1" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="I10" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="2:12">
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="28"/>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="2:12">
-      <c r="B7" s="8"/>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="28"/>
     </row>
-    <row r="8" ht="27" customHeight="1" spans="2:12">
-      <c r="B8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="28"/>
     </row>
-    <row r="9" ht="29" customHeight="1" spans="2:12">
-      <c r="B9" s="8"/>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="28"/>
     </row>
-    <row r="10" ht="28" customHeight="1" spans="2:12">
-      <c r="B10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
+    <row r="15" spans="2:10">
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B11:J14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/picture/sort.xlsx
+++ b/picture/sort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>类别</t>
   </si>
@@ -25,7 +25,7 @@
     <t>时间复杂度</t>
   </si>
   <si>
-    <t>空间复杂度(使用原地排序存储复杂度都为O(1)，快速和递归排序使用递归有栈空间占用)</t>
+    <t>空间复杂度(如果使用原地排序存储复杂度都为O(1))</t>
   </si>
   <si>
     <t>稳定性</t>
@@ -162,7 +162,34 @@
     </r>
   </si>
   <si>
-    <t>O(nlog2n)</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t> O(nlog</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -255,7 +282,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t> O(nlog</t>
+      <t>O(nlog</t>
     </r>
     <r>
       <rPr>
@@ -274,36 +301,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>n)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>O(nlog</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>n) </t>
     </r>
   </si>
@@ -327,12 +324,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t> O(nlog</t>
     </r>
     <r>
@@ -495,20 +486,96 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t> O(1)/O(n)</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>存储空间,见下方</t>
     </r>
   </si>
   <si>
-    <t>1.快速排序每次递归都会返回一个中间值的位置，必须使用栈。所以递归栈空间复杂度：O(log2n)~O(n)，因为是原地排序，存储复杂度为O(1)。
-2.归并排序每次递归需要用到一个辅助存储数组，长度与待排序的数组相等，虽然递归次数是O(log2n)，但每次递归都会释放掉所占的辅助空间，所以下次递归的栈空间和辅助空间与这部分释放的空间就不相关了，因而递归栈空间复杂度为O(1)，而存储占用的空间复杂度还是O(n)。如果是改进的原地排序，存储时间复杂度可以达到O(1)。</t>
+    <r>
+      <t>1.快速排序每次递归都会返回一个中间值的位置，必须使用栈。所以递归栈空间复杂度：O(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)~O(n)，因为是原地排序，存储复杂度为O(1)。
+2.归并排序每次递归需要用到一个辅助存储数组，长度与待排序的数组相等，虽然递归次数是O(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)，但每次递归都会释放掉所占的辅助空间，所以下次递归的栈空间和辅助空间与这部分释放的空间就不相关了，因而递归栈空间复杂度为O(1)，而存储占用的空间复杂度还是O(n)。如果是改进的原地排序，存储时间复杂度可以达到O(1)。</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -516,8 +583,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -584,22 +651,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -613,6 +674,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -621,85 +765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,16 +780,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,6 +817,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="14"/>
@@ -758,20 +832,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -793,43 +860,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,139 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,8 +1379,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,6 +1390,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1342,30 +1439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1381,17 +1454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1411,148 +1478,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2005,7 +2072,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2180,10 +2247,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>16</v>
@@ -2192,7 +2259,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="33"/>
@@ -2201,22 +2268,22 @@
     <row r="8" ht="27" customHeight="1" spans="1:12">
       <c r="A8" s="2"/>
       <c r="B8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>17</v>
@@ -2234,25 +2301,25 @@
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G9" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="33"/>
@@ -2261,26 +2328,26 @@
     <row r="10" ht="28" customHeight="1" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
@@ -2289,7 +2356,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2327,7 +2394,7 @@
       <c r="J13" s="40"/>
       <c r="K13" s="28"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" ht="18.35" spans="1:11">
       <c r="A14" s="2"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>

--- a/picture/sort.xlsx
+++ b/picture/sort.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>类别</t>
   </si>
@@ -25,7 +25,18 @@
     <t>时间复杂度</t>
   </si>
   <si>
-    <t>空间复杂度(如果使用原地排序存储复杂度都为O(1))</t>
+    <r>
+      <t>空间复杂度(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要指存储空间复杂度，程序栈空间复杂度见下方说明)</t>
+    </r>
   </si>
   <si>
     <t>稳定性</t>
@@ -317,13 +328,16 @@
     <t> O(n) </t>
   </si>
   <si>
-    <t>O(1) </t>
-  </si>
-  <si>
     <t>快速排序</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t> O(nlog</t>
     </r>
     <r>
@@ -374,39 +388,6 @@
         <charset val="134"/>
       </rPr>
       <t>) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>O(log</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n)~O(n)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>递归栈空间</t>
     </r>
   </si>
   <si>
@@ -485,6 +466,94 @@
     </r>
   </si>
   <si>
+    <t> O(n)</t>
+  </si>
+  <si>
+    <r>
+      <t>1.快速排序每次递归会返回一个中间值的位置，必须使用栈，递归栈空间复杂度：O(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)~O(n)，因为是原地排序，存储空间复杂度为O(1)。
+2.归并排序每次合并两个有序数组需要用到一个辅助存储数组，长度与待排序的数组相等，虽然迭代次数是O(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)，但每次迭代都会释放掉所占的辅助空间，所以存储占用的空间复杂度还是O(n)。使用自顶向下递归，那么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栈空间复杂度为O(</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -492,21 +561,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t> O(1)/O(n)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>存储空间,见下方</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.快速排序每次递归都会返回一个中间值的位置，必须使用栈。所以递归栈空间复杂度：O(</t>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -514,23 +578,6 @@
         <color theme="1"/>
         <charset val="134"/>
       </rPr>
-      <t>log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -540,41 +587,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>)~O(n)，因为是原地排序，存储复杂度为O(1)。
-2.归并排序每次递归需要用到一个辅助存储数组，长度与待排序的数组相等，虽然递归次数是O(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)，但每次递归都会释放掉所占的辅助空间，所以下次递归的栈空间和辅助空间与这部分释放的空间就不相关了，因而递归栈空间复杂度为O(1)，而存储占用的空间复杂度还是O(n)。如果是改进的原地排序，存储时间复杂度可以达到O(1)。</t>
+      <t>)，而自底向上则栈空间复杂度为O(1)。</t>
     </r>
   </si>
 </sst>
@@ -584,11 +597,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -619,6 +632,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -648,6 +668,20 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,7 +694,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,121 +809,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +852,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -842,6 +862,18 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -860,6 +892,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,169 +916,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,10 +1417,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1425,21 +1492,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1453,177 +1505,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,19 +1722,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1714,31 +1749,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,7 +2107,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2097,8 +2132,8 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" ht="29.5" customHeight="1" spans="1:11">
       <c r="A2" s="2"/>
@@ -2122,10 +2157,10 @@
       <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:11">
       <c r="A3" s="2"/>
@@ -2142,11 +2177,11 @@
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="28"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:11">
       <c r="A4" s="2"/>
@@ -2171,11 +2206,11 @@
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="28"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" ht="24" customHeight="1" spans="1:12">
       <c r="A5" s="2"/>
@@ -2198,12 +2233,12 @@
       <c r="H5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:12">
       <c r="A6" s="2"/>
@@ -2228,14 +2263,14 @@
       <c r="H6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:12">
       <c r="A7" s="2"/>
@@ -2258,12 +2293,12 @@
       <c r="H7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:12">
       <c r="A8" s="2"/>
@@ -2283,80 +2318,80 @@
         <v>22</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:12">
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>40</v>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:12">
       <c r="A10" s="12"/>
       <c r="B10" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
       <c r="B11" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2365,8 +2400,8 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
@@ -2378,8 +2413,8 @@
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
@@ -2391,8 +2426,8 @@
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="28"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="29"/>
     </row>
     <row r="14" ht="18.35" spans="1:11">
       <c r="A14" s="2"/>
@@ -2404,8 +2439,8 @@
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
